--- a/src/excel/FoodsPromo.xlsx
+++ b/src/excel/FoodsPromo.xlsx
@@ -4,110 +4,459 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Promo Data" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Transactions" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="136">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Create At</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Kasir</t>
   </si>
   <si>
     <t>Products</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>657e92911258058387462179</t>
-  </si>
-  <si>
-    <t>Invalid Date</t>
-  </si>
-  <si>
-    <t>Cashback 50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">657d9e4ed57c38067438455e
-657d9e4ed57c380674384561</t>
-  </si>
-  <si>
-    <t>Cashback persentase</t>
-  </si>
-  <si>
-    <t>12/1/2023 - 12/31/2023</t>
-  </si>
-  <si>
-    <t>657e9291125805838746217a</t>
-  </si>
-  <si>
-    <t>Diskon 20% Makanan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">657d9e4ed57c380674384561
-657d9e4ed57c38067438455d</t>
-  </si>
-  <si>
-    <t>Diskon persentase</t>
-  </si>
-  <si>
-    <t>12/30/2023 - 12/31/2023</t>
-  </si>
-  <si>
-    <t>657e9291125805838746217b</t>
-  </si>
-  <si>
-    <t>Cashback Rp 50rb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">657d9e4ed57c380674384562
-657d9e4ed57c380674384560
-657d9e4ed57c38067438455f
-65a0ffab88a49e3d5324ecc9</t>
-  </si>
-  <si>
-    <t>Cashback nominal</t>
-  </si>
-  <si>
-    <t>658ac8e2e88b72317bfe7dce</t>
-  </si>
-  <si>
-    <t>BAMBANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">657d9e4ed57c38067438455f
-657d9e4ed57c380674384562</t>
-  </si>
-  <si>
-    <t>12/25/2023 - 12/26/2023</t>
-  </si>
-  <si>
-    <t>65a118e688a49e3d5324efa9</t>
-  </si>
-  <si>
-    <t>Cashback 50% with DANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">657d9e4ed57c38067438455b
-65a0ffab88a49e3d5324ecc9</t>
-  </si>
-  <si>
-    <t>1/1/2024 - 1/31/2024</t>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>Cashback</t>
+  </si>
+  <si>
+    <t>657fd8be1e4deaa35e9b306a</t>
+  </si>
+  <si>
+    <t>12/18/2023</t>
+  </si>
+  <si>
+    <t>mamaraffi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soto Ayam Spesial Kaya Dia
+Ayam Bakar 
+Es Teh</t>
+  </si>
+  <si>
+    <t>Rp. 0</t>
+  </si>
+  <si>
+    <t>Rp. 311,000</t>
+  </si>
+  <si>
+    <t>657fd8ca1e4deaa35e9b30a0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soto Ayam Spesial Kaya Dia
+Ayam Bakar 
+Es Jeruk</t>
+  </si>
+  <si>
+    <t>Rp. 124,000</t>
+  </si>
+  <si>
+    <t>657fdc6a1e4deaa35e9b33f6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soto Ayam Spesial Kaya Dia
+Ayam Bakar 
+Bakso
+Es Teh
+Es Jeruk
+Jus Alpukat</t>
+  </si>
+  <si>
+    <t>Rp. 249,000</t>
+  </si>
+  <si>
+    <t>6580004d797f89b6cc1c4706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soto Ayam Spesial Kaya Dia
+Ayam Bakar 
+Bakso</t>
+  </si>
+  <si>
+    <t>Rp. 127,000</t>
+  </si>
+  <si>
+    <t>658008d26e26a8551022c9df</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>658008e86e26a8551022cd69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayam Bakar 
+Bakso
+Jus Alpukat</t>
+  </si>
+  <si>
+    <t>Rp. 169,000</t>
+  </si>
+  <si>
+    <t>658be111d3afa9d02580dcbb</t>
+  </si>
+  <si>
+    <t>12/27/2023</t>
+  </si>
+  <si>
+    <t>Soto Ayam Spesial Kaya Dia</t>
+  </si>
+  <si>
+    <t>Rp. -19,800</t>
+  </si>
+  <si>
+    <t>Rp. 99,000</t>
+  </si>
+  <si>
+    <t>Rp. 79,200</t>
+  </si>
+  <si>
+    <t>Rp. 59,400</t>
+  </si>
+  <si>
+    <t>658be11ad3afa9d02580dcbe</t>
+  </si>
+  <si>
+    <t>658be17dd3afa9d02580dcc7</t>
+  </si>
+  <si>
+    <t>Rp. -39,600</t>
+  </si>
+  <si>
+    <t>Rp. 198,000</t>
+  </si>
+  <si>
+    <t>Rp. 158,400</t>
+  </si>
+  <si>
+    <t>Rp. 118,800</t>
+  </si>
+  <si>
+    <t>658be21433fcf0ca3218731a</t>
+  </si>
+  <si>
+    <t>658be2ba3419c988a1eb818c</t>
+  </si>
+  <si>
+    <t>Rp. -23,800</t>
+  </si>
+  <si>
+    <t>Rp. 103,200</t>
+  </si>
+  <si>
+    <t>Rp. 121,400</t>
+  </si>
+  <si>
+    <t>658be3463419c988a1eb8191</t>
+  </si>
+  <si>
+    <t>658be3bd3419c988a1eb8196</t>
+  </si>
+  <si>
+    <t>659d6053d3069f30130a0103</t>
+  </si>
+  <si>
+    <t>1/9/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soto Ayam Spesial Kaya Dia
+Ayam Bakar 
+Gado-Gado</t>
+  </si>
+  <si>
+    <t>Rp. 100,200</t>
+  </si>
+  <si>
+    <t>659d606cd3069f30130a03c8</t>
+  </si>
+  <si>
+    <t>65a0f7d45c0cf99aa5802436</t>
+  </si>
+  <si>
+    <t>1/12/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soto Ayam Spesial Kaya Dia
+Ayam Bakar 
+Es Teh
+Jus Alpukat</t>
+  </si>
+  <si>
+    <t>Rp. -83,800</t>
+  </si>
+  <si>
+    <t>Rp. 434,000</t>
+  </si>
+  <si>
+    <t>Rp. 350,200</t>
+  </si>
+  <si>
+    <t>Rp. 301,400</t>
+  </si>
+  <si>
+    <t>65a1735a4e467fa7b7911679</t>
+  </si>
+  <si>
+    <t>1/13/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soto Ayam Spesial Kaya Dia
+Ayam Bakar 
+Es Teh
+Es Jeruk
+Jus Alpukat</t>
+  </si>
+  <si>
+    <t>Rp. -24,400</t>
+  </si>
+  <si>
+    <t>Rp. 142,000</t>
+  </si>
+  <si>
+    <t>Rp. 117,600</t>
+  </si>
+  <si>
+    <t>Rp. 223,200</t>
+  </si>
+  <si>
+    <t>65a3f80b588532f51e0817ac</t>
+  </si>
+  <si>
+    <t>1/14/2024</t>
+  </si>
+  <si>
+    <t>Gado-Gado</t>
+  </si>
+  <si>
+    <t>Rp. 5,000</t>
+  </si>
+  <si>
+    <t>Rp. 50,000</t>
+  </si>
+  <si>
+    <t>65a4e1d13a7e8c05394289a8</t>
+  </si>
+  <si>
+    <t>1/15/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soto Ayam Spesial Kaya Dia
+Ayam Bakar </t>
+  </si>
+  <si>
+    <t>Rp. 119,000</t>
+  </si>
+  <si>
+    <t>Rp. 95,200</t>
+  </si>
+  <si>
+    <t>Rp. 120,900</t>
+  </si>
+  <si>
+    <t>65a77686efb4a3ca2d219346</t>
+  </si>
+  <si>
+    <t>1/17/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soto Ayam Spesial Kaya Dia
+Ayam Bakar 
+Bakso
+Es Teh
+Es Jeruk</t>
+  </si>
+  <si>
+    <t>Rp. -25,000</t>
+  </si>
+  <si>
+    <t>Rp. 138,000</t>
+  </si>
+  <si>
+    <t>Rp. 113,000</t>
+  </si>
+  <si>
+    <t>Rp. 225,000</t>
+  </si>
+  <si>
+    <t>65a78817efb4a3ca2d21a39a</t>
+  </si>
+  <si>
+    <t>Rp. 108,900</t>
+  </si>
+  <si>
+    <t>65a80b30f790178afbc4d73f</t>
+  </si>
+  <si>
+    <t>1/18/2024</t>
+  </si>
+  <si>
+    <t>Rp. 424,000</t>
+  </si>
+  <si>
+    <t>65a80bbcf790178afbc4e013</t>
+  </si>
+  <si>
+    <t>Rp. 523,000</t>
+  </si>
+  <si>
+    <t>Rp. 247,500</t>
+  </si>
+  <si>
+    <t>65a80ee4f790178afbc4f071</t>
+  </si>
+  <si>
+    <t>Rp. 594,000</t>
+  </si>
+  <si>
+    <t>Rp. 297,000</t>
+  </si>
+  <si>
+    <t>65a8166ef790178afbc537ae</t>
+  </si>
+  <si>
+    <t>Rp. 396,000</t>
+  </si>
+  <si>
+    <t>65a8ad52b8ed380d73302b07</t>
+  </si>
+  <si>
+    <t>Rp. 125,000</t>
+  </si>
+  <si>
+    <t>Rp. 52,500</t>
+  </si>
+  <si>
+    <t>65a8b04cb8ed380d733069ae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soto Ayam Spesial Kaya Dia
+Ayam Bakar 
+Bakso
+Es Jeruk
+Jus Alpukat</t>
+  </si>
+  <si>
+    <t>Rp. 147,000</t>
+  </si>
+  <si>
+    <t>Rp. 150,000</t>
+  </si>
+  <si>
+    <t>65b8f55442389bcdd7ec3a17</t>
+  </si>
+  <si>
+    <t>1/30/2024</t>
+  </si>
+  <si>
+    <t>Rp. 49,500</t>
+  </si>
+  <si>
+    <t>65bde6fbec4136a1d40d5fec</t>
+  </si>
+  <si>
+    <t>2/3/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soto Ayam Spesial Kaya Dia
+Bakso
+Es Jeruk
+Jus Alpukat</t>
+  </si>
+  <si>
+    <t>65bf20767a27e0d7f9a3d850</t>
+  </si>
+  <si>
+    <t>2/4/2024</t>
+  </si>
+  <si>
+    <t>65bf4197b4048e1b26487015</t>
+  </si>
+  <si>
+    <t>Rp. 218,000</t>
+  </si>
+  <si>
+    <t>65bf41caad36b699f1bb3b40</t>
+  </si>
+  <si>
+    <t>65bf443d559096cbf9dba003</t>
+  </si>
+  <si>
+    <t>Rp. 416,000</t>
+  </si>
+  <si>
+    <t>65bf44819c9512de555a0768</t>
+  </si>
+  <si>
+    <t>65bf44a831f82acf7d07702e</t>
+  </si>
+  <si>
+    <t>65bf456fbddfc4c8f09e7aa7</t>
+  </si>
+  <si>
+    <t>65c2db00a826f7a64d2861b5</t>
+  </si>
+  <si>
+    <t>2/7/2024</t>
+  </si>
+  <si>
+    <t>Rp. 159,000</t>
+  </si>
+  <si>
+    <t>65c813bc9f5f705ad9caa7f7</t>
+  </si>
+  <si>
+    <t>2/11/2024</t>
+  </si>
+  <si>
+    <t>Rp. 595,000</t>
+  </si>
+  <si>
+    <t>Rp. 697,000</t>
+  </si>
+  <si>
+    <t>65c8184fb662d6449cf63b22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soto Ayam Spesial Kaya Dia
+Bakso
+Es Teh</t>
+  </si>
+  <si>
+    <t>Rp. 110,000</t>
+  </si>
+  <si>
+    <t>Rp. 61,200</t>
+  </si>
+  <si>
+    <t>65d6aa793e62a2524804737e</t>
+  </si>
+  <si>
+    <t>2/22/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayam Bakar 
+Bakso
+Es Jeruk</t>
+  </si>
+  <si>
+    <t>Rp. 46,000</t>
   </si>
 </sst>
 </file>
@@ -493,13 +842,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H41"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="7" width="30" customWidth="1"/>
+    <col min="1" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,120 +870,1048 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2">
-        <v>50</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2">
-        <v>50000</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2">
-        <v>50</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
